--- a/data/data_person_info.xlsx
+++ b/data/data_person_info.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Testing\RobotFramework\LibQNU\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6766C2B6-C584-4C25-B561-5869A1956C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52A91E6-8F57-4D40-A23F-A0EB41A1298D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11370" yWindow="5985" windowWidth="17280" windowHeight="9465" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3072" yWindow="3072" windowWidth="17280" windowHeight="9420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -28,14 +29,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="51">
   <si>
     <t>THCS</t>
   </si>
   <si>
-    <t>THPT</t>
-  </si>
-  <si>
     <t>0664234145</t>
   </si>
   <si>
@@ -48,18 +46,6 @@
     <t>0685131581</t>
   </si>
   <si>
-    <t>0673895297</t>
-  </si>
-  <si>
-    <t>0849920333</t>
-  </si>
-  <si>
-    <t>azxvzzx</t>
-  </si>
-  <si>
-    <t>azxc`122</t>
-  </si>
-  <si>
     <t>123#$$âzx</t>
   </si>
   <si>
@@ -75,39 +61,18 @@
     <t>Công an</t>
   </si>
   <si>
-    <t>Tư vấn</t>
-  </si>
-  <si>
-    <t>Du lịch</t>
-  </si>
-  <si>
-    <t>Kinh doanh</t>
-  </si>
-  <si>
-    <t>Lâm nghiệp</t>
-  </si>
-  <si>
-    <t>Nông nghiệp</t>
-  </si>
-  <si>
     <t>42 Nguyễn Huệ, Phường Ngô Mây</t>
   </si>
   <si>
     <t>111 An Dương Vương, Phường Nguyễn Văn Cừ</t>
   </si>
   <si>
-    <t>15 đường Lê Duẩn, Phường Lý Thường Kiệt</t>
-  </si>
-  <si>
     <t>49 Hàm Nghi, Ngô Mây</t>
   </si>
   <si>
     <t>21 Nguyễn Tất Thành, Lý Thường Kiệt</t>
   </si>
   <si>
-    <t>70-72 Nguyễn Tất Thành</t>
-  </si>
-  <si>
     <t>127 Hai Ba Trung, Tran Phu</t>
   </si>
   <si>
@@ -120,12 +85,6 @@
     <t>123@gmail.com</t>
   </si>
   <si>
-    <t>zxczcz@gmail.com</t>
-  </si>
-  <si>
-    <t>?Â?sđ@gmail.com</t>
-  </si>
-  <si>
     <t>AZXC@#21@gmail.com</t>
   </si>
   <si>
@@ -174,18 +133,6 @@
     <t>Tiến sĩ</t>
   </si>
   <si>
-    <t>Thạc sĩ</t>
-  </si>
-  <si>
-    <t>Đại học</t>
-  </si>
-  <si>
-    <t>Giáo sư</t>
-  </si>
-  <si>
-    <t>Mầm non</t>
-  </si>
-  <si>
     <t>${info_condition_email}</t>
   </si>
   <si>
@@ -207,15 +154,6 @@
     <t>dinhthang.truong13@hotmail.com</t>
   </si>
   <si>
-    <t>ngocdoan.dao82@gmail.com</t>
-  </si>
-  <si>
-    <t>duyenmy.lam@yahoo.com</t>
-  </si>
-  <si>
-    <t>ngochang74@gmail.com</t>
-  </si>
-  <si>
     <t>Cập nhật thành công</t>
   </si>
   <si>
@@ -241,6 +179,9 @@
   </si>
   <si>
     <t>${info_format_email}</t>
+  </si>
+  <si>
+    <t>Mật khẩu không trùng nhau</t>
   </si>
 </sst>
 </file>
@@ -586,122 +527,122 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>4451190019</v>
+      </c>
+      <c r="B2" s="1">
+        <v>4451190019</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>4451190019</v>
+      </c>
+      <c r="B3" s="1">
+        <v>4451190019</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>4451190019</v>
-      </c>
-      <c r="B2" s="1">
-        <v>4451190019</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>4451190019</v>
-      </c>
-      <c r="B3" s="1">
-        <v>4451190019</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>4451190019</v>
       </c>
@@ -712,210 +653,99 @@
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4451190019</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4451190019</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4451190019</v>
-      </c>
-      <c r="B5" s="1">
-        <v>4451190019</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="I5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>4451190019</v>
-      </c>
-      <c r="B6" s="1">
-        <v>4451190019</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>4451190019</v>
-      </c>
-      <c r="B7" s="1">
-        <v>4451190019</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>4451190019</v>
-      </c>
-      <c r="B8" s="1">
-        <v>4451190019</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>4451190019</v>
-      </c>
-      <c r="B9" s="1">
-        <v>4451190019</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>4451190019</v>
-      </c>
-      <c r="B10" s="1">
-        <v>4451190019</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="F11" s="1"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="F12" s="1"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="F13" s="1"/>
@@ -924,364 +754,263 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{B9663348-2945-4AC3-921C-B8A14DBD58F8}"/>
-    <hyperlink ref="H7" r:id="rId2" xr:uid="{4B918C98-E834-4487-AFD0-CA02E9B7B5E7}"/>
-    <hyperlink ref="H4" r:id="rId3" xr:uid="{C8992330-A5B1-43DF-BAEC-B8F3FA0E267A}"/>
-    <hyperlink ref="H5" r:id="rId4" xr:uid="{C281773F-C3B0-4BB9-B0C8-D93188114DC8}"/>
-    <hyperlink ref="H8" r:id="rId5" xr:uid="{7BD743BF-16B2-4F3B-9D2F-88FB760D6F06}"/>
-    <hyperlink ref="H3" r:id="rId6" xr:uid="{1C33004D-0959-4231-AEF3-CCDACF76362B}"/>
-    <hyperlink ref="H6" r:id="rId7" xr:uid="{4CE99120-853A-41C4-8302-AA7DD378389D}"/>
-    <hyperlink ref="H9" r:id="rId8" xr:uid="{EE4908F5-CED0-49B9-B688-99ED5E71B73F}"/>
-    <hyperlink ref="H10" r:id="rId9" xr:uid="{D8CDC031-348F-44A2-9754-E112C4434C5A}"/>
+    <hyperlink ref="H4" r:id="rId2" xr:uid="{C8992330-A5B1-43DF-BAEC-B8F3FA0E267A}"/>
+    <hyperlink ref="H5" r:id="rId3" xr:uid="{C281773F-C3B0-4BB9-B0C8-D93188114DC8}"/>
+    <hyperlink ref="H3" r:id="rId4" xr:uid="{1C33004D-0959-4231-AEF3-CCDACF76362B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2353A7B7-066F-42FB-9216-87A44B58BDD9}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:K1048576"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G1" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="G1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="K1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>4451190019</v>
+      </c>
+      <c r="B2" s="1">
+        <v>4451190019</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
         <v>41</v>
       </c>
-      <c r="L1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>4451190019</v>
-      </c>
-      <c r="B2" s="1">
-        <v>4451190019</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>4451190019</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="J3">
         <v>4451190019</v>
       </c>
+      <c r="K3" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="L3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>4451190019</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4">
-        <v>4451190019</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4451190019</v>
-      </c>
-      <c r="B5" s="1">
-        <v>4451190019</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5">
-        <v>4451190019</v>
-      </c>
-      <c r="L5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>4451190019</v>
-      </c>
-      <c r="B6" s="1">
-        <v>4451190019</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6">
-        <v>4451190019</v>
-      </c>
-      <c r="K6">
-        <v>4451190019</v>
-      </c>
-      <c r="L6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="F7" s="1"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="F8" s="1"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="F9" s="1"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="F10" s="1"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="F11" s="1"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="F12" s="1"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="H13" s="2"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K4" r:id="rId1" xr:uid="{0B9DC3F4-899A-4BBC-AD08-A8A03AE7D6C1}"/>
+    <hyperlink ref="K3" r:id="rId1" xr:uid="{0B9DC3F4-899A-4BBC-AD08-A8A03AE7D6C1}"/>
     <hyperlink ref="H2" r:id="rId2" xr:uid="{C39BD807-FEA6-479A-A82F-1BF842658038}"/>
-    <hyperlink ref="H4" r:id="rId3" xr:uid="{32F27688-4139-4D9E-8248-BC1CF3F39307}"/>
-    <hyperlink ref="H5" r:id="rId4" xr:uid="{C2642FF0-22F2-4AC5-97C0-A66B027A9725}"/>
-    <hyperlink ref="H3" r:id="rId5" xr:uid="{0EF67206-1E8C-4598-81E8-B00AA813B1B1}"/>
-    <hyperlink ref="H6" r:id="rId6" xr:uid="{2A336048-6666-433A-BC27-0F372D913A61}"/>
-    <hyperlink ref="J2" r:id="rId7" xr:uid="{A2D61868-04C0-4B1E-B95B-7BA3E4BE426F}"/>
-    <hyperlink ref="K2" r:id="rId8" xr:uid="{F1E914B4-3918-4F3A-AA4A-47B60ED5CAEA}"/>
-    <hyperlink ref="B3" r:id="rId9" xr:uid="{472B73C1-93E4-4029-9FC4-DC94A2851F14}"/>
-    <hyperlink ref="B4" r:id="rId10" xr:uid="{040C930C-C6B6-40F0-952D-A56230BC4D6E}"/>
+    <hyperlink ref="H3" r:id="rId3" xr:uid="{32F27688-4139-4D9E-8248-BC1CF3F39307}"/>
+    <hyperlink ref="J2" r:id="rId4" xr:uid="{A2D61868-04C0-4B1E-B95B-7BA3E4BE426F}"/>
+    <hyperlink ref="K2" r:id="rId5" xr:uid="{F1E914B4-3918-4F3A-AA4A-47B60ED5CAEA}"/>
+    <hyperlink ref="B3" r:id="rId6" xr:uid="{040C930C-C6B6-40F0-952D-A56230BC4D6E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7376C20E-5C9C-408D-A809-F1325FD5B497}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="G3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" t="s">
-        <v>53</v>
-      </c>
       <c r="H1" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="I1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>4451190019</v>
       </c>
@@ -1291,17 +1020,14 @@
       <c r="C2" s="2"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" t="s">
-        <v>64</v>
-      </c>
       <c r="G2" s="4" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="H2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>4451190019</v>
       </c>
@@ -1309,61 +1035,41 @@
         <v>4451190019</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D3">
         <v>4451190019</v>
       </c>
-      <c r="H3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>4451190019</v>
-      </c>
-      <c r="B4" s="1">
-        <v>4451190019</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{8BC5BAF2-1CE5-4114-9098-76AFF5191F06}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{8B61DAB4-B79D-4C4E-9CDE-698614832F6D}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{EA17B7BB-CCE4-4989-850A-D84BD27038EE}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{A20B13B5-4D86-44B9-BCEC-664516A48375}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{451A113E-9060-4EB1-983C-472904743408}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1371,37 +1077,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A8A732A-DB13-434F-B61D-E8D136951833}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>4451190019</v>
       </c>
@@ -1410,11 +1116,11 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>4451190019</v>
       </c>
@@ -1422,46 +1128,147 @@
         <v>4451190019</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>4451190019</v>
-      </c>
-      <c r="B4" s="1">
-        <v>4451190019</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{26882EBC-8D91-4EAC-8124-D29E4D6716C9}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{E8283A5D-0DA3-4397-96E3-FC6695D6A78F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E130DA99-3C70-4F3F-889B-3BCEDC2D4D96}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>4451190019</v>
+      </c>
+      <c r="B2" s="1">
+        <v>4451190019</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{D86D8D30-7DE6-46C0-AB70-D4ADB80BA81D}"/>
+    <hyperlink ref="J2" r:id="rId2" xr:uid="{B6B23768-A8A1-4E9A-8FE1-A2C8302644C1}"/>
+    <hyperlink ref="K2" r:id="rId3" xr:uid="{9F9AA2F5-C04B-477C-A17F-88E64CE50755}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/data_person_info.xlsx
+++ b/data/data_person_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Testing\RobotFramework\LibQNU\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52A91E6-8F57-4D40-A23F-A0EB41A1298D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2191D5CD-DE14-428B-A132-87A52B32D52B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3072" yWindow="3072" windowWidth="17280" windowHeight="9420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4725" yWindow="2265" windowWidth="21600" windowHeight="11835" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="63">
   <si>
     <t>THCS</t>
   </si>
@@ -182,6 +182,42 @@
   </si>
   <si>
     <t>Mật khẩu không trùng nhau</t>
+  </si>
+  <si>
+    <t>*** Test case ***</t>
+  </si>
+  <si>
+    <t>TC037 - Xác minh chức năng thay đổi thông tin cá nhân thành công</t>
+  </si>
+  <si>
+    <t>TC038 - Xác minh chức năng thay đổi thông tin cá nhân với địa chỉ cơ quan không hợp lệ</t>
+  </si>
+  <si>
+    <t>TC039 - Xác minh chức năng thay đổi thông tin cá nhân với mobile không hợp lệ</t>
+  </si>
+  <si>
+    <t>TC040 - Xác minh chức năng thay đổi thông tin cá nhân với địa chỉ thường trú không hợp lệ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC041 - Xác minh chức năng thay đổi thông tin cá nhân với thay đổi mật khẩu thành công </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC042 - Xác minh chức năng thay đổi thông tin cá nhân với thay đổi mật khẩu không thành công </t>
+  </si>
+  <si>
+    <t>TC043 - Xác minh trường bắt buộc email trong chức năng thay đổi thông tin cá nhân</t>
+  </si>
+  <si>
+    <t>TC044 - Xác minh trường định dạng email trong chức năng thay đổi thông tin cá nhân</t>
+  </si>
+  <si>
+    <t>TC045 - Xác minh trường bắt buộc nhập mật khẩu trong chức năng thay đổi thông tin cá nhân</t>
+  </si>
+  <si>
+    <t>TC046 - Xác minh trường bắt buộc mật khẩu không trùng nhau trong chức năng thay đổi thông tin cá nhân</t>
+  </si>
+  <si>
+    <t>TC047 - Xác minh nút làm lại trong chức năng thay đổi thông tin cá nhân</t>
   </si>
 </sst>
 </file>
@@ -527,236 +563,250 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="81.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>25</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>4451190019</v>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>52</v>
       </c>
       <c r="B2" s="1">
         <v>4451190019</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="1">
+        <v>4451190019</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>4451190019</v>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>53</v>
       </c>
       <c r="B3" s="1">
         <v>4451190019</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="1">
+        <v>4451190019</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>14</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>4451190019</v>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>54</v>
       </c>
       <c r="B4" s="1">
         <v>4451190019</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="1">
+        <v>4451190019</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>13</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>4451190019</v>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>55</v>
       </c>
       <c r="B5" s="1">
         <v>4451190019</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="1">
+        <v>4451190019</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" t="s">
+      <c r="G5" s="1"/>
+      <c r="H5" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="H13" s="2"/>
+      <c r="C13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="I13" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{B9663348-2945-4AC3-921C-B8A14DBD58F8}"/>
-    <hyperlink ref="H4" r:id="rId2" xr:uid="{C8992330-A5B1-43DF-BAEC-B8F3FA0E267A}"/>
-    <hyperlink ref="H5" r:id="rId3" xr:uid="{C281773F-C3B0-4BB9-B0C8-D93188114DC8}"/>
-    <hyperlink ref="H3" r:id="rId4" xr:uid="{1C33004D-0959-4231-AEF3-CCDACF76362B}"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{B9663348-2945-4AC3-921C-B8A14DBD58F8}"/>
+    <hyperlink ref="I4" r:id="rId2" xr:uid="{C8992330-A5B1-43DF-BAEC-B8F3FA0E267A}"/>
+    <hyperlink ref="I5" r:id="rId3" xr:uid="{C281773F-C3B0-4BB9-B0C8-D93188114DC8}"/>
+    <hyperlink ref="I3" r:id="rId4" xr:uid="{1C33004D-0959-4231-AEF3-CCDACF76362B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
@@ -765,195 +815,203 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2353A7B7-066F-42FB-9216-87A44B58BDD9}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G1" sqref="A1:XFD2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="86.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>25</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>26</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>27</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>4451190019</v>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>56</v>
       </c>
       <c r="B2" s="1">
         <v>4451190019</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="1">
+        <v>4451190019</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>10</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>4451190019</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="1">
+        <v>4451190019</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>13</v>
       </c>
-      <c r="J3">
-        <v>4451190019</v>
-      </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3">
+        <v>4451190019</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="H12" s="2"/>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="I12" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1" xr:uid="{0B9DC3F4-899A-4BBC-AD08-A8A03AE7D6C1}"/>
-    <hyperlink ref="H2" r:id="rId2" xr:uid="{C39BD807-FEA6-479A-A82F-1BF842658038}"/>
-    <hyperlink ref="H3" r:id="rId3" xr:uid="{32F27688-4139-4D9E-8248-BC1CF3F39307}"/>
-    <hyperlink ref="J2" r:id="rId4" xr:uid="{A2D61868-04C0-4B1E-B95B-7BA3E4BE426F}"/>
-    <hyperlink ref="K2" r:id="rId5" xr:uid="{F1E914B4-3918-4F3A-AA4A-47B60ED5CAEA}"/>
-    <hyperlink ref="B3" r:id="rId6" xr:uid="{040C930C-C6B6-40F0-952D-A56230BC4D6E}"/>
+    <hyperlink ref="L3" r:id="rId1" xr:uid="{0B9DC3F4-899A-4BBC-AD08-A8A03AE7D6C1}"/>
+    <hyperlink ref="I2" r:id="rId2" xr:uid="{C39BD807-FEA6-479A-A82F-1BF842658038}"/>
+    <hyperlink ref="I3" r:id="rId3" xr:uid="{32F27688-4139-4D9E-8248-BC1CF3F39307}"/>
+    <hyperlink ref="K2" r:id="rId4" xr:uid="{A2D61868-04C0-4B1E-B95B-7BA3E4BE426F}"/>
+    <hyperlink ref="L2" r:id="rId5" xr:uid="{F1E914B4-3918-4F3A-AA4A-47B60ED5CAEA}"/>
+    <hyperlink ref="C3" r:id="rId6" xr:uid="{040C930C-C6B6-40F0-952D-A56230BC4D6E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>
@@ -962,111 +1020,121 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7376C20E-5C9C-408D-A809-F1325FD5B497}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="A3:XFD3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="95.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>35</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>36</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>4451190019</v>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>60</v>
       </c>
       <c r="B2" s="1">
         <v>4451190019</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
+      <c r="C2" s="1">
+        <v>4451190019</v>
+      </c>
+      <c r="D2" s="2"/>
       <c r="E2" s="3"/>
-      <c r="G2" s="4" t="s">
+      <c r="F2" s="3"/>
+      <c r="H2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>4451190019</v>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>61</v>
       </c>
       <c r="B3" s="1">
         <v>4451190019</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1">
+        <v>4451190019</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D3">
-        <v>4451190019</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3">
+        <v>4451190019</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{A20B13B5-4D86-44B9-BCEC-664516A48375}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{451A113E-9060-4EB1-983C-472904743408}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{A20B13B5-4D86-44B9-BCEC-664516A48375}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{451A113E-9060-4EB1-983C-472904743408}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1075,90 +1143,98 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A8A732A-DB13-434F-B61D-E8D136951833}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="35.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="75.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>4451190019</v>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>58</v>
       </c>
       <c r="B2" s="1">
         <v>4451190019</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" t="s">
+      <c r="C2" s="1">
+        <v>4451190019</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>4451190019</v>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>59</v>
       </c>
       <c r="B3" s="1">
         <v>4451190019</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1">
+        <v>4451190019</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{26882EBC-8D91-4EAC-8124-D29E4D6716C9}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{26882EBC-8D91-4EAC-8124-D29E4D6716C9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1166,109 +1242,116 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E130DA99-3C70-4F3F-889B-3BCEDC2D4D96}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="64.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>25</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>26</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>27</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>4451190019</v>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>62</v>
       </c>
       <c r="B2" s="1">
         <v>4451190019</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="1">
+        <v>4451190019</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>10</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{D86D8D30-7DE6-46C0-AB70-D4ADB80BA81D}"/>
-    <hyperlink ref="J2" r:id="rId2" xr:uid="{B6B23768-A8A1-4E9A-8FE1-A2C8302644C1}"/>
-    <hyperlink ref="K2" r:id="rId3" xr:uid="{9F9AA2F5-C04B-477C-A17F-88E64CE50755}"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{D86D8D30-7DE6-46C0-AB70-D4ADB80BA81D}"/>
+    <hyperlink ref="K2" r:id="rId2" xr:uid="{B6B23768-A8A1-4E9A-8FE1-A2C8302644C1}"/>
+    <hyperlink ref="L2" r:id="rId3" xr:uid="{9F9AA2F5-C04B-477C-A17F-88E64CE50755}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
